--- a/Auto-IT/bulk_sites.xlsx
+++ b/Auto-IT/bulk_sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="6080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14290" windowHeight="6080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,27 @@
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -90,22 +106,19 @@
     <t>Johannesburg</t>
   </si>
   <si>
-    <t>Free State</t>
+    <t>Gauteng</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>varan@gmail.com</t>
-  </si>
-  <si>
     <t>www.abc.com</t>
   </si>
   <si>
-    <t>Goutham</t>
-  </si>
-  <si>
-    <t>GROUP.CO</t>
+    <t>wdguwy</t>
+  </si>
+  <si>
+    <t>Ash</t>
   </si>
   <si>
     <t>sumit</t>
@@ -114,52 +127,37 @@
     <t>narkhede</t>
   </si>
   <si>
-    <t>blocka@gmail.com</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gauteng</t>
+    </r>
+  </si>
+  <si>
+    <t>Soweto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Eastern Cape</t>
+    </r>
+  </si>
+  <si>
+    <t>active</t>
   </si>
   <si>
     <t>Vereeniging</t>
   </si>
   <si>
-    <t>Eastern Cape</t>
-  </si>
-  <si>
-    <t>7878877887</t>
-  </si>
-  <si>
-    <t>Imran</t>
-  </si>
-  <si>
-    <t>Ash</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Gauteng</t>
-    </r>
-  </si>
-  <si>
-    <t>Soweto</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Eastern Cape</t>
-    </r>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1080,17 +1078,20 @@
     </r>
   </si>
   <si>
-    <t>sink - 22</t>
-  </si>
-  <si>
-    <t>base-23</t>
+    <t>ABC APPIJEY</t>
+  </si>
+  <si>
+    <t>Apijeey@gmail.com</t>
+  </si>
+  <si>
+    <t>Absa@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,14 +1108,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1153,18 +1146,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1441,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1453,22 +1444,22 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
     <col min="6" max="6" width="20.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
     <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="14" max="14" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="16.54296875" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="17.1796875" customWidth="1"/>
+    <col min="17" max="17" width="17.08984375" customWidth="1"/>
     <col min="18" max="18" width="18.26953125" customWidth="1"/>
     <col min="19" max="19" width="21.453125" customWidth="1"/>
-    <col min="20" max="20" width="13.1796875" customWidth="1"/>
+    <col min="20" max="20" width="13.08984375" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1538,22 +1529,22 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="3" t="s">
-        <v>138</v>
+      <c r="A2" t="s">
+        <v>132</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G2">
@@ -1565,26 +1556,26 @@
       <c r="I2">
         <v>7878877887</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
       </c>
       <c r="N2">
         <v>1234567890</v>
       </c>
       <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
         <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
       </c>
       <c r="Q2">
         <v>7898899882</v>
@@ -1592,8 +1583,8 @@
       <c r="R2">
         <v>7898899888</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>32</v>
+      <c r="S2" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="T2">
         <v>11.33</v>
@@ -1602,80 +1593,12 @@
         <v>22.44</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3">
-        <v>5898</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3">
-        <v>1234567890</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3">
-        <v>7898899888</v>
-      </c>
-      <c r="R3">
-        <v>7898899889</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3">
-        <v>11.332000000000001</v>
-      </c>
-      <c r="U3">
-        <v>22.44</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" tooltip="mailto:varan@gmail.com"/>
+    <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="K2" r:id="rId2" tooltip="http://www.abc.com"/>
-    <hyperlink ref="S2" r:id="rId3" tooltip="mailto:blocka@gmail.com"/>
-    <hyperlink ref="J3" r:id="rId4" tooltip="mailto:varan@gmail.com"/>
-    <hyperlink ref="K3" r:id="rId5" tooltip="http://www.abc.com"/>
-    <hyperlink ref="S3" r:id="rId6" tooltip="mailto:blocka@gmail.com"/>
-    <hyperlink ref="A2" r:id="rId7" display="sink - 1"/>
+    <hyperlink ref="S2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4" display="sink - 1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1718,7 +1641,7 @@
   <cols>
     <col min="1" max="1" width="22.90625" customWidth="1"/>
     <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
     <col min="6" max="6" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1727,45 +1650,45 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -1773,445 +1696,445 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Auto-IT/bulk_sites.xlsx
+++ b/Auto-IT/bulk_sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="6080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13450" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,27 @@
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -81,31 +97,25 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>Gate End</t>
-  </si>
-  <si>
     <t>150 Bryanston Drive</t>
   </si>
   <si>
     <t>Johannesburg</t>
   </si>
   <si>
-    <t>Free State</t>
+    <t>Gauteng</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>varan@gmail.com</t>
-  </si>
-  <si>
     <t>www.abc.com</t>
   </si>
   <si>
-    <t>Goutham</t>
-  </si>
-  <si>
-    <t>GROUP.CO</t>
+    <t>wdguwy</t>
+  </si>
+  <si>
+    <t>Ash</t>
   </si>
   <si>
     <t>sumit</t>
@@ -114,52 +124,37 @@
     <t>narkhede</t>
   </si>
   <si>
-    <t>blocka@gmail.com</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gauteng</t>
+    </r>
+  </si>
+  <si>
+    <t>Soweto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Eastern Cape</t>
+    </r>
+  </si>
+  <si>
+    <t>active</t>
   </si>
   <si>
     <t>Vereeniging</t>
   </si>
   <si>
-    <t>Eastern Cape</t>
-  </si>
-  <si>
-    <t>7878877887</t>
-  </si>
-  <si>
-    <t>Imran</t>
-  </si>
-  <si>
-    <t>Ash</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Gauteng</t>
-    </r>
-  </si>
-  <si>
-    <t>Soweto</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Eastern Cape</t>
-    </r>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1080,17 +1075,23 @@
     </r>
   </si>
   <si>
-    <t>sink - 22</t>
-  </si>
-  <si>
-    <t>base-23</t>
+    <t>Gate End20</t>
+  </si>
+  <si>
+    <t>Jordhania</t>
+  </si>
+  <si>
+    <t>Appalu@gmail.com</t>
+  </si>
+  <si>
+    <t>habibiaa@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,14 +1108,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1153,18 +1146,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1441,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1453,22 +1444,22 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
     <col min="6" max="6" width="20.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
     <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="14" max="14" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="16.54296875" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="17.1796875" customWidth="1"/>
+    <col min="17" max="17" width="17.08984375" customWidth="1"/>
     <col min="18" max="18" width="18.26953125" customWidth="1"/>
     <col min="19" max="19" width="21.453125" customWidth="1"/>
-    <col min="20" max="20" width="13.1796875" customWidth="1"/>
+    <col min="20" max="20" width="13.08984375" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1538,62 +1529,62 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="3" t="s">
-        <v>138</v>
+      <c r="A2" t="s">
+        <v>132</v>
       </c>
       <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="G2">
         <v>5098</v>
       </c>
       <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>7871007887</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2">
-        <v>7878877887</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2">
+        <v>1234511890</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>29</v>
       </c>
-      <c r="N2">
-        <v>1234567890</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
       <c r="Q2">
-        <v>7898899882</v>
+        <v>7892009882</v>
       </c>
       <c r="R2">
-        <v>7898899888</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>32</v>
+        <v>7890011088</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="T2">
         <v>11.33</v>
@@ -1602,80 +1593,12 @@
         <v>22.44</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3">
-        <v>5898</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3">
-        <v>1234567890</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3">
-        <v>7898899888</v>
-      </c>
-      <c r="R3">
-        <v>7898899889</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3">
-        <v>11.332000000000001</v>
-      </c>
-      <c r="U3">
-        <v>22.44</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" tooltip="mailto:varan@gmail.com"/>
-    <hyperlink ref="K2" r:id="rId2" tooltip="http://www.abc.com"/>
-    <hyperlink ref="S2" r:id="rId3" tooltip="mailto:blocka@gmail.com"/>
-    <hyperlink ref="J3" r:id="rId4" tooltip="mailto:varan@gmail.com"/>
-    <hyperlink ref="K3" r:id="rId5" tooltip="http://www.abc.com"/>
-    <hyperlink ref="S3" r:id="rId6" tooltip="mailto:blocka@gmail.com"/>
-    <hyperlink ref="A2" r:id="rId7" display="sink - 1"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="S2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4" display="sink - 1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1718,500 +1641,500 @@
   <cols>
     <col min="1" max="1" width="22.90625" customWidth="1"/>
     <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
     <col min="6" max="6" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Auto-IT/bulk_sites.xlsx
+++ b/Auto-IT/bulk_sites.xlsx
@@ -4,35 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="5860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J18"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -97,13 +81,19 @@
     <t>Latitude</t>
   </si>
   <si>
+    <t>sink - 1</t>
+  </si>
+  <si>
+    <t>Gate End</t>
+  </si>
+  <si>
     <t>150 Bryanston Drive</t>
   </si>
   <si>
     <t>Johannesburg</t>
   </si>
   <si>
-    <t>Gauteng</t>
+    <t>Free State</t>
   </si>
   <si>
     <t>South Africa</t>
@@ -112,10 +102,7 @@
     <t>www.abc.com</t>
   </si>
   <si>
-    <t>wdguwy</t>
-  </si>
-  <si>
-    <t>Ash</t>
+    <t>Goutham</t>
   </si>
   <si>
     <t>sumit</t>
@@ -124,23 +111,971 @@
     <t>narkhede</t>
   </si>
   <si>
-    <t>Gate End20</t>
-  </si>
-  <si>
-    <t>Jordhania</t>
-  </si>
-  <si>
-    <t>Appalu@gmail.com</t>
-  </si>
-  <si>
-    <t>habibiaa@gmail.com</t>
+    <t>Vereeniging</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gauteng</t>
+    </r>
+  </si>
+  <si>
+    <t>Soweto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Eastern Cape</t>
+    </r>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Western Cape</t>
+    </r>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Pietermaritzburg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Free State</t>
+    </r>
+  </si>
+  <si>
+    <t>Pretoria</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Limpopo</t>
+    </r>
+  </si>
+  <si>
+    <t>Durban</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>North West</t>
+    </r>
+  </si>
+  <si>
+    <t>Rustenburg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mpumalanga</t>
+    </r>
+  </si>
+  <si>
+    <t>Kimberley</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Northern Cape</t>
+    </r>
+  </si>
+  <si>
+    <t>Katlehong</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>KwaZulu-Natal</t>
+    </r>
+  </si>
+  <si>
+    <t>Cape Town</t>
+  </si>
+  <si>
+    <t>Welkom</t>
+  </si>
+  <si>
+    <t>Khayelitsha</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>East London</t>
+  </si>
+  <si>
+    <t>Randburg</t>
+  </si>
+  <si>
+    <t>Roodepoort</t>
+  </si>
+  <si>
+    <t>Port Elizabeth</t>
+  </si>
+  <si>
+    <t>Mitchells Plain</t>
+  </si>
+  <si>
+    <t>Boksburg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bloemfontein</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Germiston</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Centurion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Springs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Sandton</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Polokwane</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Klerksdorp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bhisho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Benoni</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>George</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Middelburg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Sasolburg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vryheid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Potchefstroom</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Krugersdorp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Umtata</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Brits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Alberton</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Upington</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Paarl</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Witbank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Queenstown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mmabatho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Kroonstad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uitenhage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bethal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Worcester</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Grahamstown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Thohoyandou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Saldanha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Odendaalsrus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Oudtshoorn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mossel Bay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Edenvale</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Kuilsrivier</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Beaufort West</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Aliwal North</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vredenburg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lydenburg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Malmesbury</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cradock</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Westville</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ulundi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jeffrey’s Bay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Frankfort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Stellenbosch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bronkhorstspruit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Montagu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mahikeng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bredasdorp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Breyten</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Primrose</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bedfordview</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Summerstrand</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Prieska</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Velddrif</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Kuruman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ga-Kgapane</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lorraine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Saron</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Breidbach</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Citrusdal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vanrhynsdorp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Elsburg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Carnarvon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Genadendal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Kenton on Sea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bluewater Bay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Chrissiesmeer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>New Hanover</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rawsonville</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Nelspruit</t>
+    </r>
+  </si>
+  <si>
+    <t>Lippa</t>
+  </si>
+  <si>
+    <t>blackys@gmail.com</t>
+  </si>
+  <si>
+    <t>Hamidaaa001@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +1092,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -195,16 +1138,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -493,22 +1438,22 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="20.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
     <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="14" max="14" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="16.54296875" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="17.08984375" customWidth="1"/>
+    <col min="17" max="17" width="17.1796875" customWidth="1"/>
     <col min="18" max="18" width="18.26953125" customWidth="1"/>
     <col min="19" max="19" width="21.453125" customWidth="1"/>
-    <col min="20" max="20" width="13.08984375" customWidth="1"/>
+    <col min="20" max="20" width="13.1796875" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -578,62 +1523,62 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>31</v>
+      <c r="A2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>5898</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>7878877887</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2">
+        <v>1234567890</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>5098</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2">
-        <v>7871007887</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2">
-        <v>1234511890</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
       <c r="Q2">
-        <v>7892009882</v>
+        <v>7898899882</v>
       </c>
       <c r="R2">
-        <v>7890011088</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>33</v>
+        <v>7898899888</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="T2">
         <v>11.33</v>
@@ -641,13 +1586,22 @@
       <c r="U2">
         <v>22.44</v>
       </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="C3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId2" tooltip="http://www.abc.com"/>
     <hyperlink ref="S2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="sink - 1"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -682,303 +1636,509 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22.90625" customWidth="1"/>
     <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
     <col min="6" max="6" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Auto-IT/bulk_sites.xlsx
+++ b/Auto-IT/bulk_sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14290" windowHeight="6080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,22 +12,6 @@
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -97,6 +81,9 @@
     <t>Latitude</t>
   </si>
   <si>
+    <t>sink - 1</t>
+  </si>
+  <si>
     <t>Gate End</t>
   </si>
   <si>
@@ -106,7 +93,7 @@
     <t>Johannesburg</t>
   </si>
   <si>
-    <t>Gauteng</t>
+    <t>Free State</t>
   </si>
   <si>
     <t>South Africa</t>
@@ -115,10 +102,7 @@
     <t>www.abc.com</t>
   </si>
   <si>
-    <t>wdguwy</t>
-  </si>
-  <si>
-    <t>Ash</t>
+    <t>Goutham</t>
   </si>
   <si>
     <t>sumit</t>
@@ -127,6 +111,9 @@
     <t>narkhede</t>
   </si>
   <si>
+    <t>Vereeniging</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -155,9 +142,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>Vereeniging</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1078,20 +1062,20 @@
     </r>
   </si>
   <si>
-    <t>ABC APPIJEY</t>
-  </si>
-  <si>
-    <t>Apijeey@gmail.com</t>
-  </si>
-  <si>
-    <t>Absa@gmail.com</t>
+    <t>Lippa</t>
+  </si>
+  <si>
+    <t>blackys@gmail.com</t>
+  </si>
+  <si>
+    <t>Hamidaaa001@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,6 +1092,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1146,16 +1138,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1432,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1444,22 +1438,22 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="20.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
     <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="14" max="14" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="16.54296875" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="17.08984375" customWidth="1"/>
+    <col min="17" max="17" width="17.1796875" customWidth="1"/>
     <col min="18" max="18" width="18.26953125" customWidth="1"/>
     <col min="19" max="19" width="21.453125" customWidth="1"/>
-    <col min="20" max="20" width="13.08984375" customWidth="1"/>
+    <col min="20" max="20" width="13.1796875" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1529,44 +1523,44 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>132</v>
+      <c r="A2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G2">
-        <v>5098</v>
+        <v>5898</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2">
         <v>7878877887</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
+      <c r="J2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="N2">
         <v>1234567890</v>
@@ -1583,8 +1577,8 @@
       <c r="R2">
         <v>7898899888</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>134</v>
+      <c r="S2" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="T2">
         <v>11.33</v>
@@ -1592,13 +1586,22 @@
       <c r="U2">
         <v>22.44</v>
       </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="C3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="K2" r:id="rId2" tooltip="http://www.abc.com"/>
     <hyperlink ref="S2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="sink - 1"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1641,32 +1644,32 @@
   <cols>
     <col min="1" max="1" width="22.90625" customWidth="1"/>
     <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
     <col min="6" max="6" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -1691,7 +1694,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">

--- a/Auto-IT/bulk_sites.xlsx
+++ b/Auto-IT/bulk_sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13630" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>sink - 1</t>
-  </si>
-  <si>
     <t>Gate End</t>
   </si>
   <si>
@@ -1065,10 +1062,13 @@
     <t>Lippa</t>
   </si>
   <si>
-    <t>blackys@gmail.com</t>
-  </si>
-  <si>
-    <t>Hamidaaa001@gmail.com</t>
+    <t>sink - 12</t>
+  </si>
+  <si>
+    <t>Hamidaaa002@gmail.com</t>
+  </si>
+  <si>
+    <t>blackys01@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1443,7 +1443,7 @@
     <col min="7" max="7" width="11.54296875" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" customWidth="1"/>
     <col min="9" max="9" width="18.54296875" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" customWidth="1"/>
     <col min="11" max="11" width="22.54296875" customWidth="1"/>
     <col min="12" max="12" width="15.54296875" customWidth="1"/>
     <col min="13" max="13" width="14.453125" customWidth="1"/>
@@ -1524,52 +1524,52 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="G2">
         <v>5898</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>7878877887</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
       <c r="M2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N2">
         <v>1234567890</v>
       </c>
       <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
         <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
       </c>
       <c r="Q2">
         <v>7898899882</v>
@@ -1578,7 +1578,7 @@
         <v>7898899888</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T2">
         <v>11.33</v>
@@ -1601,7 +1601,7 @@
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="K2" r:id="rId2" tooltip="http://www.abc.com"/>
     <hyperlink ref="S2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId4" display="sink - 1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1650,494 +1650,494 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Auto-IT/bulk_sites.xlsx
+++ b/Auto-IT/bulk_sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13630" windowHeight="5860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14650" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1062,13 +1062,13 @@
     <t>Lippa</t>
   </si>
   <si>
-    <t>sink - 12</t>
-  </si>
-  <si>
-    <t>Hamidaaa002@gmail.com</t>
-  </si>
-  <si>
-    <t>blackys01@gmail.com</t>
+    <t>Shark evenue</t>
+  </si>
+  <si>
+    <t>blackys05@gmail.com</t>
+  </si>
+  <si>
+    <t>Shark002@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1551,7 +1551,7 @@
         <v>7878877887</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>26</v>
@@ -1578,7 +1578,7 @@
         <v>7898899888</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T2">
         <v>11.33</v>

--- a/Auto-IT/bulk_sites.xlsx
+++ b/Auto-IT/bulk_sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14650" windowHeight="5860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13030" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1062,13 +1062,13 @@
     <t>Lippa</t>
   </si>
   <si>
-    <t>Shark evenue</t>
-  </si>
-  <si>
-    <t>blackys05@gmail.com</t>
-  </si>
-  <si>
-    <t>Shark002@gmail.com</t>
+    <t>Shark</t>
+  </si>
+  <si>
+    <t>Shark009@gmail.com</t>
+  </si>
+  <si>
+    <t>blackys10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1428,13 +1428,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="21.26953125" customWidth="1"/>
@@ -1548,10 +1548,10 @@
         <v>25</v>
       </c>
       <c r="I2">
-        <v>7878877887</v>
+        <v>7878077887</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>26</v>
@@ -1578,7 +1578,7 @@
         <v>7898899888</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T2">
         <v>11.33</v>

--- a/Auto-IT/bulk_sites.xlsx
+++ b/Auto-IT/bulk_sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14650" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>sink - 1</t>
-  </si>
-  <si>
     <t>Gate End</t>
   </si>
   <si>
@@ -1065,10 +1062,13 @@
     <t>Lippa</t>
   </si>
   <si>
-    <t>blackys@gmail.com</t>
-  </si>
-  <si>
-    <t>Hamidaaa001@gmail.com</t>
+    <t>Shark evenue</t>
+  </si>
+  <si>
+    <t>blackys05@gmail.com</t>
+  </si>
+  <si>
+    <t>Shark002@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1443,7 +1443,7 @@
     <col min="7" max="7" width="11.54296875" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" customWidth="1"/>
     <col min="9" max="9" width="18.54296875" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" customWidth="1"/>
     <col min="11" max="11" width="22.54296875" customWidth="1"/>
     <col min="12" max="12" width="15.54296875" customWidth="1"/>
     <col min="13" max="13" width="14.453125" customWidth="1"/>
@@ -1524,28 +1524,28 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="G2">
         <v>5898</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>7878877887</v>
@@ -1554,22 +1554,22 @@
         <v>134</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
       <c r="M2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N2">
         <v>1234567890</v>
       </c>
       <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
         <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
       </c>
       <c r="Q2">
         <v>7898899882</v>
@@ -1601,7 +1601,7 @@
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="K2" r:id="rId2" tooltip="http://www.abc.com"/>
     <hyperlink ref="S2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId4" display="sink - 1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1650,494 +1650,494 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Auto-IT/bulk_sites.xlsx
+++ b/Auto-IT/bulk_sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13030" windowHeight="5860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="6080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1059,22 +1059,22 @@
     </r>
   </si>
   <si>
-    <t>Lippa</t>
-  </si>
-  <si>
-    <t>Shark</t>
-  </si>
-  <si>
-    <t>Shark009@gmail.com</t>
-  </si>
-  <si>
-    <t>blackys10@gmail.com</t>
+    <t>alberto</t>
+  </si>
+  <si>
+    <t>Sharkbaby0012@gmail.com</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>albertog01@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1429,7 +1429,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1548,10 +1548,10 @@
         <v>25</v>
       </c>
       <c r="I2">
-        <v>7878077887</v>
+        <v>7878077087</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>26</v>
@@ -1560,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N2">
         <v>1234567890</v>
@@ -1572,10 +1572,10 @@
         <v>29</v>
       </c>
       <c r="Q2">
-        <v>7898899882</v>
+        <v>7898299882</v>
       </c>
       <c r="R2">
-        <v>7898899888</v>
+        <v>7898829888</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>134</v>
